--- a/static/InvitadosEvento.xlsx
+++ b/static/InvitadosEvento.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Hoja 2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
@@ -523,7 +522,6 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="1048576" s="3"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
@@ -537,35 +535,4 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
-  <cols>
-    <col customWidth="1" max="1025" min="1" style="2" width="8.369999999999999"/>
-  </cols>
-  <sheetData/>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
 </file>